--- a/Rscripts/data/Table_S3.xlsx
+++ b/Rscripts/data/Table_S3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joselynchavez/Dropbox/Article_Joselyn_Chavez/Supporting_Information_Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joselynchavez/Dropbox/Chavez_et_al_2020/Rscripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DE685-60DA-D442-B257-9E4850B92741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8604E91-E10D-6D43-8FFA-63EC8B85F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16200" xr2:uid="{5AAE3AB8-A001-074B-BC9D-D844F96A47DD}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{5AAE3AB8-A001-074B-BC9D-D844F96A47DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16974,7 +16974,7 @@
   <dimension ref="A1:G2723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Rscripts/data/Table_S3.xlsx
+++ b/Rscripts/data/Table_S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joselynchavez/Dropbox/Chavez_et_al_2020/Rscripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8604E91-E10D-6D43-8FFA-63EC8B85F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6F5CD-94A5-F541-B4A1-DDC2378E2D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{5AAE3AB8-A001-074B-BC9D-D844F96A47DD}"/>
   </bookViews>
@@ -16590,7 +16590,7 @@
     </r>
   </si>
   <si>
-    <t>Transcription Factors</t>
+    <t>Transcription factors</t>
   </si>
 </sst>
 </file>
@@ -16974,7 +16974,7 @@
   <dimension ref="A1:G2723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
